--- a/storage/file/kecamatan.xlsx
+++ b/storage/file/kecamatan.xlsx
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,53 +909,53 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>

--- a/storage/file/kecamatan.xlsx
+++ b/storage/file/kecamatan.xlsx
@@ -31,9 +31,6 @@
     <t>Samarinda Kota</t>
   </si>
   <si>
-    <t>Samarinda Sebarang</t>
-  </si>
-  <si>
     <t>Samarinda Ulu</t>
   </si>
   <si>
@@ -47,6 +44,9 @@
   </si>
   <si>
     <t>Sungai Pinang</t>
+  </si>
+  <si>
+    <t>Samarinda Seberang</t>
   </si>
 </sst>
 </file>
@@ -893,10 +893,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,24 +909,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -952,11 +957,6 @@
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
